--- a/jupyter/analysis/week9/Batches.xlsx
+++ b/jupyter/analysis/week9/Batches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lincolnzjx/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1CA3AD-475E-414D-A48D-2756C24CD6C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C38788-7BF0-2344-9370-3E475E20D243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="3100" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{34816874-BDE9-CC40-BF5F-84104DCBDCF0}"/>
+    <workbookView xWindow="3560" yWindow="3100" windowWidth="28040" windowHeight="17440" xr2:uid="{34816874-BDE9-CC40-BF5F-84104DCBDCF0}"/>
   </bookViews>
   <sheets>
     <sheet name="950" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>exp</t>
   </si>
@@ -192,6 +192,21 @@
   </si>
   <si>
     <t>x052118</t>
+  </si>
+  <si>
+    <t>x071600</t>
+  </si>
+  <si>
+    <t>x071601</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -259,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -272,6 +287,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1AB8EF-13EF-EC43-B69B-5B265A6B003B}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,7 +617,7 @@
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,8 +630,11 @@
       <c r="D1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -626,8 +647,11 @@
       <c r="D2">
         <v>950</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -640,8 +664,11 @@
       <c r="D3">
         <v>950</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -654,8 +681,11 @@
       <c r="D4">
         <v>950</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -668,8 +698,11 @@
       <c r="D5">
         <v>950</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -682,8 +715,11 @@
       <c r="D6">
         <v>950</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -696,8 +732,11 @@
       <c r="D7">
         <v>950</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -710,8 +749,11 @@
       <c r="D8">
         <v>950</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -724,8 +766,11 @@
       <c r="D9">
         <v>950</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -738,8 +783,11 @@
       <c r="D10">
         <v>950</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -752,8 +800,11 @@
       <c r="D11">
         <v>950</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -766,8 +817,11 @@
       <c r="D12">
         <v>950</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -780,8 +834,11 @@
       <c r="D13">
         <v>950</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -794,8 +851,11 @@
       <c r="D14">
         <v>950</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -808,8 +868,11 @@
       <c r="D15">
         <v>950</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -822,8 +885,11 @@
       <c r="D16">
         <v>950</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -836,8 +902,11 @@
       <c r="D17">
         <v>950</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -849,6 +918,43 @@
       </c>
       <c r="D18">
         <v>950</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>950</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>950</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -858,9 +964,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AEB636-BE34-444B-A517-2F001A859F67}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -1090,7 +1196,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1104,7 +1210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1118,7 +1224,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
@@ -1132,7 +1238,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
@@ -1146,7 +1252,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -1160,7 +1266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>41</v>
       </c>
@@ -1174,7 +1280,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>42</v>
       </c>
@@ -1188,7 +1294,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
@@ -1202,7 +1308,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
@@ -1216,7 +1322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
@@ -1230,7 +1336,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>46</v>
       </c>
@@ -1244,7 +1350,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
@@ -1258,7 +1364,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
@@ -1272,7 +1378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>49</v>
       </c>
@@ -1285,8 +1391,9 @@
       <c r="D30" s="4">
         <v>968</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>50</v>
       </c>
@@ -1300,7 +1407,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>51</v>
       </c>

--- a/jupyter/analysis/week9/Batches.xlsx
+++ b/jupyter/analysis/week9/Batches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lincolnzjx/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C38788-7BF0-2344-9370-3E475E20D243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A303FF-00D8-B343-AC54-DA34ED2D312E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="3100" windowWidth="28040" windowHeight="17440" xr2:uid="{34816874-BDE9-CC40-BF5F-84104DCBDCF0}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,7 +682,7 @@
         <v>950</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/jupyter/analysis/week9/Batches.xlsx
+++ b/jupyter/analysis/week9/Batches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lincolnzjx/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A303FF-00D8-B343-AC54-DA34ED2D312E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158F62A1-08F5-4F40-A170-90327B4D0F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="3100" windowWidth="28040" windowHeight="17440" xr2:uid="{34816874-BDE9-CC40-BF5F-84104DCBDCF0}"/>
+    <workbookView xWindow="3560" yWindow="3100" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{34816874-BDE9-CC40-BF5F-84104DCBDCF0}"/>
   </bookViews>
   <sheets>
     <sheet name="950" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
   <si>
     <t>exp</t>
   </si>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1AB8EF-13EF-EC43-B69B-5B265A6B003B}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,7 +648,7 @@
         <v>950</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -665,7 +665,7 @@
         <v>950</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -699,7 +699,7 @@
         <v>950</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -716,7 +716,7 @@
         <v>950</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -733,7 +733,7 @@
         <v>950</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -750,7 +750,7 @@
         <v>950</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>950</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -784,7 +784,7 @@
         <v>950</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -801,7 +801,7 @@
         <v>950</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -818,7 +818,7 @@
         <v>950</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -835,7 +835,7 @@
         <v>950</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -852,7 +852,7 @@
         <v>950</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>950</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -886,7 +886,7 @@
         <v>950</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -903,7 +903,7 @@
         <v>950</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -920,7 +920,7 @@
         <v>950</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -937,7 +937,7 @@
         <v>950</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -954,7 +954,7 @@
         <v>950</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -966,13 +966,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AEB636-BE34-444B-A517-2F001A859F67}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,8 +985,11 @@
       <c r="D1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -999,8 +1002,11 @@
       <c r="D2">
         <v>968</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1013,8 +1019,11 @@
       <c r="D3">
         <v>878</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1027,8 +1036,11 @@
       <c r="D4">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1041,8 +1053,11 @@
       <c r="D5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1055,8 +1070,11 @@
       <c r="D6">
         <v>968</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1069,8 +1087,11 @@
       <c r="D7">
         <v>878</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1083,8 +1104,11 @@
       <c r="D8">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1097,8 +1121,11 @@
       <c r="D9">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1111,8 +1138,11 @@
       <c r="D10">
         <v>968</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="D11">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1139,8 +1172,11 @@
       <c r="D12">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1153,8 +1189,11 @@
       <c r="D13">
         <v>878</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1167,8 +1206,11 @@
       <c r="D14" s="4">
         <v>968</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1181,8 +1223,11 @@
       <c r="D15" s="4">
         <v>878</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1194,6 +1239,9 @@
       </c>
       <c r="D16" s="4">
         <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1209,6 +1257,9 @@
       <c r="D17" s="4">
         <v>14</v>
       </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
@@ -1223,6 +1274,9 @@
       <c r="D18" s="4">
         <v>968</v>
       </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -1237,6 +1291,9 @@
       <c r="D19" s="4">
         <v>878</v>
       </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -1251,6 +1308,9 @@
       <c r="D20" s="4">
         <v>90</v>
       </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
@@ -1265,6 +1325,9 @@
       <c r="D21" s="4">
         <v>14</v>
       </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -1279,6 +1342,9 @@
       <c r="D22" s="4">
         <v>968</v>
       </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -1293,6 +1359,9 @@
       <c r="D23" s="4">
         <v>878</v>
       </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -1307,6 +1376,9 @@
       <c r="D24" s="4">
         <v>90</v>
       </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
@@ -1321,6 +1393,9 @@
       <c r="D25" s="4">
         <v>14</v>
       </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
@@ -1335,6 +1410,9 @@
       <c r="D26" s="4">
         <v>968</v>
       </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
@@ -1349,6 +1427,9 @@
       <c r="D27" s="4">
         <v>878</v>
       </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
@@ -1363,6 +1444,9 @@
       <c r="D28" s="4">
         <v>90</v>
       </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -1377,6 +1461,9 @@
       <c r="D29" s="4">
         <v>14</v>
       </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -1391,6 +1478,9 @@
       <c r="D30" s="4">
         <v>968</v>
       </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1406,6 +1496,9 @@
       <c r="D31" s="4">
         <v>878</v>
       </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -1420,8 +1513,11 @@
       <c r="D32" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>52</v>
       </c>
@@ -1433,6 +1529,9 @@
       </c>
       <c r="D33" s="4">
         <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter/analysis/week9/Batches.xlsx
+++ b/jupyter/analysis/week9/Batches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lincolnzjx/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158F62A1-08F5-4F40-A170-90327B4D0F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2566163-7758-EB45-9D41-FF0DD53B420D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="3100" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{34816874-BDE9-CC40-BF5F-84104DCBDCF0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{34816874-BDE9-CC40-BF5F-84104DCBDCF0}"/>
   </bookViews>
   <sheets>
     <sheet name="950" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
   <si>
     <t>exp</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>x072500</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +264,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -274,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -291,6 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1AB8EF-13EF-EC43-B69B-5B265A6B003B}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +645,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B2">
@@ -682,7 +692,7 @@
         <v>950</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -699,7 +709,7 @@
         <v>950</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -716,11 +726,11 @@
         <v>950</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -750,11 +760,11 @@
         <v>950</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B9">
@@ -784,7 +794,7 @@
         <v>950</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -801,7 +811,7 @@
         <v>950</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -822,7 +832,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -835,7 +845,7 @@
         <v>950</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -852,7 +862,7 @@
         <v>950</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -869,11 +879,11 @@
         <v>950</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -903,7 +913,7 @@
         <v>950</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -920,7 +930,7 @@
         <v>950</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -964,10 +974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AEB636-BE34-444B-A517-2F001A859F67}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1013,7 @@
         <v>968</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1020,7 +1030,7 @@
         <v>878</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1037,7 +1047,7 @@
         <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1054,7 +1064,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1071,7 +1081,7 @@
         <v>968</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1088,7 +1098,7 @@
         <v>878</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1105,7 +1115,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1139,7 +1149,7 @@
         <v>968</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1156,7 +1166,7 @@
         <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1173,7 +1183,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1190,7 +1200,7 @@
         <v>878</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1207,7 +1217,7 @@
         <v>968</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1224,7 +1234,7 @@
         <v>878</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1241,7 +1251,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1275,7 +1285,7 @@
         <v>968</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1292,7 +1302,7 @@
         <v>878</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1309,7 +1319,7 @@
         <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1343,7 +1353,7 @@
         <v>968</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1360,7 +1370,7 @@
         <v>878</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1377,7 +1387,7 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1394,7 +1404,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1411,7 +1421,7 @@
         <v>968</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1428,7 +1438,7 @@
         <v>878</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1445,7 +1455,7 @@
         <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1462,7 +1472,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1479,7 +1489,7 @@
         <v>968</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" s="7"/>
     </row>
@@ -1497,7 +1507,7 @@
         <v>878</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1514,7 +1524,7 @@
         <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1531,6 +1541,23 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>173</v>
+      </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
         <v>57</v>
       </c>
     </row>

--- a/jupyter/analysis/week9/Batches.xlsx
+++ b/jupyter/analysis/week9/Batches.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lincolnzjx/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lincolnzjx/Desktop/Interpretation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2566163-7758-EB45-9D41-FF0DD53B420D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E613ADAC-CA0A-CD46-9544-89332F98DE5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{34816874-BDE9-CC40-BF5F-84104DCBDCF0}"/>
+    <workbookView xWindow="4620" yWindow="0" windowWidth="31440" windowHeight="20440" activeTab="1" xr2:uid="{34816874-BDE9-CC40-BF5F-84104DCBDCF0}"/>
   </bookViews>
   <sheets>
     <sheet name="950" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
   <si>
     <t>exp</t>
   </si>
@@ -80,136 +80,133 @@
     <t>x7012</t>
   </si>
   <si>
+    <t>x7009</t>
+  </si>
+  <si>
+    <t>x052204</t>
+  </si>
+  <si>
+    <t>x052203</t>
+  </si>
+  <si>
+    <t>x052202</t>
+  </si>
+  <si>
+    <t>x052201</t>
+  </si>
+  <si>
+    <t>x052198</t>
+  </si>
+  <si>
+    <t>x052197</t>
+  </si>
+  <si>
+    <t>x052196</t>
+  </si>
+  <si>
+    <t>x052195</t>
+  </si>
+  <si>
+    <t>x052148</t>
+  </si>
+  <si>
+    <t>x052147</t>
+  </si>
+  <si>
+    <t>x052146</t>
+  </si>
+  <si>
+    <t>x052145</t>
+  </si>
+  <si>
+    <t>class_index</t>
+  </si>
+  <si>
+    <t>x052150</t>
+  </si>
+  <si>
+    <t>x052151</t>
+  </si>
+  <si>
+    <t>x052152</t>
+  </si>
+  <si>
+    <t>x052153</t>
+  </si>
+  <si>
+    <t>x061300</t>
+  </si>
+  <si>
+    <t>x060495</t>
+  </si>
+  <si>
+    <t>x060496</t>
+  </si>
+  <si>
+    <t>x052100</t>
+  </si>
+  <si>
+    <t>x052101</t>
+  </si>
+  <si>
+    <t>x052102</t>
+  </si>
+  <si>
+    <t>x052103</t>
+  </si>
+  <si>
+    <t>x052105</t>
+  </si>
+  <si>
+    <t>x052106</t>
+  </si>
+  <si>
+    <t>x052107</t>
+  </si>
+  <si>
+    <t>x052108</t>
+  </si>
+  <si>
+    <t>x052110</t>
+  </si>
+  <si>
+    <t>x052111</t>
+  </si>
+  <si>
+    <t>x052112</t>
+  </si>
+  <si>
+    <t>x052113</t>
+  </si>
+  <si>
+    <t>x052115</t>
+  </si>
+  <si>
+    <t>x052116</t>
+  </si>
+  <si>
+    <t>x052117</t>
+  </si>
+  <si>
+    <t>x052118</t>
+  </si>
+  <si>
+    <t>x071600</t>
+  </si>
+  <si>
+    <t>x071601</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>x072500</t>
+  </si>
+  <si>
     <t>x7013</t>
-  </si>
-  <si>
-    <t>x7009</t>
-  </si>
-  <si>
-    <t>x052204</t>
-  </si>
-  <si>
-    <t>x052203</t>
-  </si>
-  <si>
-    <t>x052202</t>
-  </si>
-  <si>
-    <t>x052201</t>
-  </si>
-  <si>
-    <t>x052198</t>
-  </si>
-  <si>
-    <t>x052197</t>
-  </si>
-  <si>
-    <t>x052196</t>
-  </si>
-  <si>
-    <t>x052195</t>
-  </si>
-  <si>
-    <t>x052148</t>
-  </si>
-  <si>
-    <t>x052147</t>
-  </si>
-  <si>
-    <t>x052146</t>
-  </si>
-  <si>
-    <t>x052145</t>
-  </si>
-  <si>
-    <t>class_index</t>
-  </si>
-  <si>
-    <t>x052150</t>
-  </si>
-  <si>
-    <t>x052151</t>
-  </si>
-  <si>
-    <t>x052152</t>
-  </si>
-  <si>
-    <t>x052153</t>
-  </si>
-  <si>
-    <t>x061300</t>
-  </si>
-  <si>
-    <t>x060495</t>
-  </si>
-  <si>
-    <t>x060496</t>
-  </si>
-  <si>
-    <t>x052100</t>
-  </si>
-  <si>
-    <t>x052101</t>
-  </si>
-  <si>
-    <t>x052102</t>
-  </si>
-  <si>
-    <t>x052103</t>
-  </si>
-  <si>
-    <t>x052105</t>
-  </si>
-  <si>
-    <t>x052106</t>
-  </si>
-  <si>
-    <t>x052107</t>
-  </si>
-  <si>
-    <t>x052108</t>
-  </si>
-  <si>
-    <t>x052110</t>
-  </si>
-  <si>
-    <t>x052111</t>
-  </si>
-  <si>
-    <t>x052112</t>
-  </si>
-  <si>
-    <t>x052113</t>
-  </si>
-  <si>
-    <t>x052115</t>
-  </si>
-  <si>
-    <t>x052116</t>
-  </si>
-  <si>
-    <t>x052117</t>
-  </si>
-  <si>
-    <t>x052118</t>
-  </si>
-  <si>
-    <t>x071600</t>
-  </si>
-  <si>
-    <t>x071601</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>x072500</t>
   </si>
 </sst>
 </file>
@@ -617,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1AB8EF-13EF-EC43-B69B-5B265A6B003B}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="185" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,15 +635,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -658,7 +655,7 @@
         <v>950</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -675,7 +672,7 @@
         <v>950</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -692,7 +689,7 @@
         <v>950</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -709,7 +706,7 @@
         <v>950</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -726,7 +723,7 @@
         <v>950</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -743,7 +740,7 @@
         <v>950</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -760,7 +757,7 @@
         <v>950</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -777,7 +774,7 @@
         <v>950</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -794,12 +791,12 @@
         <v>950</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -811,7 +808,7 @@
         <v>950</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -828,7 +825,7 @@
         <v>950</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -845,7 +842,7 @@
         <v>950</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -862,7 +859,7 @@
         <v>950</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -879,12 +876,12 @@
         <v>950</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>25</v>
@@ -896,12 +893,12 @@
         <v>950</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>27</v>
@@ -913,12 +910,12 @@
         <v>950</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>29</v>
@@ -930,12 +927,12 @@
         <v>950</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -947,12 +944,12 @@
         <v>950</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -964,7 +961,7 @@
         <v>950</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -976,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AEB636-BE34-444B-A517-2F001A859F67}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,15 +990,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -1013,12 +1010,12 @@
         <v>968</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -1030,12 +1027,12 @@
         <v>878</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1047,12 +1044,12 @@
         <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -1064,12 +1061,12 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1081,12 +1078,12 @@
         <v>968</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1098,12 +1095,12 @@
         <v>878</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1115,12 +1112,12 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1132,12 +1129,12 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1149,12 +1146,12 @@
         <v>968</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1166,12 +1163,12 @@
         <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1183,12 +1180,12 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1200,12 +1197,12 @@
         <v>878</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -1217,12 +1214,12 @@
         <v>968</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -1234,12 +1231,12 @@
         <v>878</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -1251,12 +1248,12 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -1268,12 +1265,12 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>29</v>
@@ -1285,12 +1282,12 @@
         <v>968</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>29</v>
@@ -1302,12 +1299,12 @@
         <v>878</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>29</v>
@@ -1319,12 +1316,12 @@
         <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>29</v>
@@ -1336,12 +1333,12 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="4">
         <v>27</v>
@@ -1353,12 +1350,12 @@
         <v>968</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4">
         <v>27</v>
@@ -1370,12 +1367,12 @@
         <v>878</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="4">
         <v>27</v>
@@ -1387,12 +1384,12 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4">
         <v>27</v>
@@ -1404,12 +1401,12 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="4">
         <v>25</v>
@@ -1421,12 +1418,12 @@
         <v>968</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="4">
         <v>25</v>
@@ -1438,12 +1435,12 @@
         <v>878</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="4">
         <v>25</v>
@@ -1455,12 +1452,12 @@
         <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4">
         <v>25</v>
@@ -1472,12 +1469,12 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="4">
         <v>22</v>
@@ -1489,13 +1486,13 @@
         <v>968</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="4">
         <v>22</v>
@@ -1507,12 +1504,12 @@
         <v>878</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="4">
         <v>22</v>
@@ -1524,12 +1521,12 @@
         <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="4">
         <v>22</v>
@@ -1541,12 +1538,12 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>15</v>
@@ -1558,7 +1555,7 @@
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1587,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
